--- a/biology/Zoologie/Alacran/Alacran.xlsx
+++ b/biology/Zoologie/Alacran/Alacran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alacran est un genre de scorpions de la famille des Typhlochactidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Mexique[1].  Elles se rencontrent dans des grottes en Oaxaca et au Puebla.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Mexique.  Elles se rencontrent dans des grottes en Oaxaca et au Puebla.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (19/08/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (19/08/2020) :
 Alacran chamuco Francke, 2009
 Alacran tartarus Francke, 1982
 Alacran triquimera Santibáñez-López, Francke &amp; Prendini, 2014</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Francke, 1982 : « Studies of the scorpion subfamilies Superstitioninae and Typhlochactinae, with description of a new genus (Scorpiones, Chactoidea). » Bulletin of the Texas Memorial Museum, no 28, p. 51-61.</t>
         </is>
